--- a/biology/Zoologie/Fundulus_diaphanus/Fundulus_diaphanus.xlsx
+++ b/biology/Zoologie/Fundulus_diaphanus/Fundulus_diaphanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fundulus diaphanus
 Le Fondule barré (Fundulus diaphanus) est une espèce de poisson de la famille des Fundulidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fondule barré est un petit poisson allongé dépassant rarement 10 cm. Il a une tête aplatie, une bouche dirigée vers le haut et une queue arrondie. Sa coloration va du vert au vert olive sur le dos avec des flancs plus pâles. Il est marqué de 12 à 24 barres foncées, à l'inverse du choquemort[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fondule barré est un petit poisson allongé dépassant rarement 10 cm. Il a une tête aplatie, une bouche dirigée vers le haut et une queue arrondie. Sa coloration va du vert au vert olive sur le dos avec des flancs plus pâles. Il est marqué de 12 à 24 barres foncées, à l'inverse du choquemort.
 </t>
         </is>
       </c>
@@ -543,11 +557,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette espèce dans les bassins hydrographiques de la côte de l'océan Atlantique de Terre-Neuve jusqu'au Pee Dee en Caroline du Sud ainsi que dans les bassins de Saint-Laurent et du Mississippi du Nebraska au Manitoba[2].
-Habitat
-Le fondule barré fréquente les eaux peu profondes des lacs, des étangs et des rivières. On le retrouve parfois dans les estuaires[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette espèce dans les bassins hydrographiques de la côte de l'océan Atlantique de Terre-Neuve jusqu'au Pee Dee en Caroline du Sud ainsi que dans les bassins de Saint-Laurent et du Mississippi du Nebraska au Manitoba.
 </t>
         </is>
       </c>
@@ -573,12 +587,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Distribution et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fondule barré fréquente les eaux peu profondes des lacs, des étangs et des rivières. On le retrouve parfois dans les estuaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fundulus_diaphanus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fundulus_diaphanus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit principalement de larves d'insecte et de petit crustacés planctoniques[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit principalement de larves d'insecte et de petit crustacés planctoniques.
 </t>
         </is>
       </c>
